--- a/output_Balance_Sheet_DS/ARIZONA_STATE_UNIVERSITY.xlsx
+++ b/output_Balance_Sheet_DS/ARIZONA_STATE_UNIVERSITY.xlsx
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2700563</v>
+        <v>2517149</v>
       </c>
     </row>
     <row r="10">
